--- a/Datasets/SeperateCountryFiles/Japan.xlsx
+++ b/Datasets/SeperateCountryFiles/Japan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\Datasets\SeperateCountryFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6355C81B-706D-43CD-966C-22C77D397EB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E775468-F175-4C06-859F-7395C6A2372F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,12 +87,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -118,12 +124,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,13 +1892,13 @@
       <c r="H34" s="1">
         <v>12</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <v>1</v>
       </c>
-      <c r="J34" s="1">
-        <v>0</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L34" s="1" t="s">
@@ -1926,13 +1935,13 @@
       <c r="H35" s="1">
         <v>27</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <v>1</v>
       </c>
-      <c r="J35" s="1">
-        <v>0</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L35" s="1" t="s">
@@ -1969,13 +1978,13 @@
       <c r="H36" s="1">
         <v>12</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="3">
         <v>1</v>
       </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L36" s="1" t="s">
@@ -2012,13 +2021,13 @@
       <c r="H37" s="1">
         <v>13</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="3">
         <v>1</v>
       </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>18</v>
       </c>
       <c r="L37" s="1" t="s">
@@ -2055,13 +2064,13 @@
       <c r="H38" s="1">
         <v>7</v>
       </c>
-      <c r="I38" s="1">
-        <v>116</v>
-      </c>
-      <c r="J38" s="1">
-        <v>115</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="I38" s="3">
+        <v>2</v>
+      </c>
+      <c r="J38" s="3">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L38" s="1" t="s">
@@ -2098,13 +2107,13 @@
       <c r="H39" s="1">
         <v>22</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="3">
         <v>3</v>
       </c>
-      <c r="J39" s="1">
-        <v>-113</v>
-      </c>
-      <c r="K39" s="1" t="s">
+      <c r="J39" s="3">
+        <v>1</v>
+      </c>
+      <c r="K39" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -2141,13 +2150,13 @@
       <c r="H40" s="1">
         <v>24</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="3">
         <v>4</v>
       </c>
-      <c r="J40" s="1">
+      <c r="J40" s="3">
         <v>1</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -2184,13 +2193,13 @@
       <c r="H41" s="1">
         <v>20</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <v>5</v>
       </c>
-      <c r="J41" s="1">
+      <c r="J41" s="3">
         <v>1</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L41" s="1">
@@ -2227,13 +2236,13 @@
       <c r="H42" s="1">
         <v>9</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="3">
         <v>5</v>
       </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L42" s="1">
@@ -2270,13 +2279,13 @@
       <c r="H43" s="1">
         <v>15</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="3">
         <v>6</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J43" s="3">
         <v>1</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L43" s="1">
@@ -2313,13 +2322,13 @@
       <c r="H44" s="1">
         <v>14</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="3">
         <v>6</v>
       </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="L44" s="1">
@@ -3537,5 +3546,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>